--- a/utilities/Excel_Sheets/Products/CYB_LSA.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_LSA.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="85">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -260,6 +260,33 @@
   </si>
   <si>
     <t>Texas</t>
+  </si>
+  <si>
+    <t>Effective_Date</t>
+  </si>
+  <si>
+    <t>PCI_Medical_Group_After_Sep_6_2017</t>
+  </si>
+  <si>
+    <t>PCI_Office_of_Physician_After_Sep_6_2017</t>
+  </si>
+  <si>
+    <t>No_PCI_Medical_Group_After_Sep_6_2017</t>
+  </si>
+  <si>
+    <t>No_PCI_Office_of_Physician_After_Sep_6_2017</t>
+  </si>
+  <si>
+    <t>PCI_Medical_Group_Before_Sep_6_2017</t>
+  </si>
+  <si>
+    <t>PCI_Office_of_Physician_Before_Sep_6_2017</t>
+  </si>
+  <si>
+    <t>No_PCI_Medical_Group_Before_Sep_6_2017</t>
+  </si>
+  <si>
+    <t>No_PCI_Office_of_Physician_Before_Sep_6_2017</t>
   </si>
 </sst>
 </file>
@@ -281,7 +308,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +345,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -331,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -361,6 +400,20 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,18 +740,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
@@ -707,13 +760,14 @@
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="133.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="116.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -721,202 +775,391 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="20">
+        <v>10000000</v>
+      </c>
+      <c r="L2" s="19">
+        <v>26</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="18">
+        <v>42984</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="20">
+        <v>10000000</v>
+      </c>
+      <c r="L3" s="19">
+        <v>6</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="22">
+        <v>42984</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="24">
+        <v>10000000</v>
+      </c>
+      <c r="L4" s="23">
+        <v>1</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="22">
+        <v>42984</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="24">
+        <v>10000000</v>
+      </c>
+      <c r="L5" s="23">
+        <v>1</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="25">
+        <v>42983</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="25">
+        <v>42983</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="B8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="26">
+        <v>42983</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4</v>
+      </c>
+      <c r="E8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="I8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="K2" s="14">
-        <v>1</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="K8" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="14">
+      <c r="N8" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="26">
+        <v>42983</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="I9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="K4" s="11">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="K9" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="14">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="K6" s="14">
-        <v>1</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="K8" s="11">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="11">
+      <c r="N9" s="14">
         <v>0</v>
       </c>
     </row>
@@ -935,7 +1178,7 @@
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD47"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/utilities/Excel_Sheets/Products/CYB_LSA.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_LSA.xlsx
@@ -648,12 +648,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -721,10 +721,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="17">
         <v>42984</v>
@@ -742,337 +742,339 @@
         <v>1</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="L2" s="18">
+        <v>5</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="17">
+        <v>42984</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L2" s="18">
-        <v>1</v>
-      </c>
-      <c r="M2" s="26" t="s">
+      <c r="I4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="L4" s="18">
+        <v>6</v>
+      </c>
+      <c r="M4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="21">
+        <v>42984</v>
+      </c>
+      <c r="D6" s="22">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="L6" s="22">
+        <v>1</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="21">
+        <v>42984</v>
+      </c>
+      <c r="D7" s="22">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="L7" s="22">
+        <v>1</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="24">
+        <v>42983</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="17">
-        <v>42984</v>
-      </c>
-      <c r="D3" s="18">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="B10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="24">
+        <v>42983</v>
+      </c>
+      <c r="D10" s="11">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L3" s="18">
-        <v>1</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="I10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="21">
-        <v>42984</v>
-      </c>
-      <c r="D4" s="22">
-        <v>2</v>
-      </c>
-      <c r="E4" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="B11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="25">
+        <v>42983</v>
+      </c>
+      <c r="D11" s="14">
+        <v>4</v>
+      </c>
+      <c r="E11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L4" s="22">
-        <v>1</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="I11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="21">
-        <v>42984</v>
-      </c>
-      <c r="D5" s="22">
-        <v>2</v>
-      </c>
-      <c r="E5" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="B12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="25">
+        <v>42983</v>
+      </c>
+      <c r="D12" s="14">
+        <v>4</v>
+      </c>
+      <c r="E12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L5" s="22">
-        <v>1</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="24">
-        <v>42983</v>
-      </c>
-      <c r="D7" s="11">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L7" s="11">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="24">
-        <v>42983</v>
-      </c>
-      <c r="D8" s="11">
-        <v>3</v>
-      </c>
-      <c r="E8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10" t="s">
+      <c r="I12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L12" s="14">
+        <v>1</v>
+      </c>
+      <c r="M12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="25">
-        <v>42983</v>
-      </c>
-      <c r="D9" s="14">
-        <v>4</v>
-      </c>
-      <c r="E9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L9" s="14">
-        <v>1</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="25">
-        <v>42983</v>
-      </c>
-      <c r="D10" s="14">
-        <v>4</v>
-      </c>
-      <c r="E10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L10" s="14">
-        <v>1</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:N1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/utilities/Excel_Sheets/Products/CYB_LSA.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_LSA.xlsx
@@ -650,10 +650,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -666,7 +666,7 @@
     <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" style="1" customWidth="1"/>
@@ -727,7 +727,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="17">
-        <v>42984</v>
+        <v>43020</v>
       </c>
       <c r="D2" s="18">
         <v>1</v>

--- a/utilities/Excel_Sheets/Products/CYB_LSA.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_LSA.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'11611'!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Full_Regression!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Full_Regression!$A$1:$X$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="53">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>select_Medefense_Plus_and_eMD_Higher_Limits_Without_PCI_and_Cyber_Crime_Combined_3MM_3MM_100K_250K_limit_2pt5K_Deduct</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>Texas</t>
@@ -648,7 +645,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -683,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -724,10 +721,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="17">
-        <v>43020</v>
+        <v>43102</v>
       </c>
       <c r="D2" s="18">
         <v>1</v>
@@ -748,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="19">
         <v>10000000</v>
@@ -757,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N2" s="18">
         <v>0</v>
@@ -769,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="17">
         <v>42984</v>
@@ -793,288 +790,597 @@
         <v>6</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="19">
         <v>10000000</v>
       </c>
       <c r="L4" s="18">
-        <v>6</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="N4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="17">
+        <v>42984</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="L5" s="18">
+        <v>1</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0</v>
+      </c>
+    </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="17">
+        <v>42984</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="L6" s="18">
+        <v>5</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="17">
+        <v>42984</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="L7" s="18">
+        <v>5</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="17">
+        <v>42984</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="L8" s="18">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="17">
+        <v>42984</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="L9" s="18">
+        <v>5</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="17">
+        <v>42984</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="L10" s="18">
+        <v>5</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="17">
+        <v>42984</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="L12" s="18">
+        <v>6</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="21">
+        <v>42984</v>
+      </c>
+      <c r="D14" s="22">
+        <v>2</v>
+      </c>
+      <c r="E14" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="L14" s="22">
+        <v>1</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="21">
-        <v>42984</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C15" s="21">
+        <v>42984</v>
+      </c>
+      <c r="D15" s="22">
         <v>2</v>
       </c>
-      <c r="E6" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="20" t="s">
+      <c r="E15" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="L15" s="22">
+        <v>1</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="24">
+        <v>42983</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3</v>
+      </c>
+      <c r="E17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L6" s="22">
-        <v>1</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="22">
+      <c r="I17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L17" s="11">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="24">
+        <v>42983</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="25">
+        <v>42983</v>
+      </c>
+      <c r="D19" s="14">
+        <v>4</v>
+      </c>
+      <c r="E19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="21">
-        <v>42984</v>
-      </c>
-      <c r="D7" s="22">
-        <v>2</v>
-      </c>
-      <c r="E7" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="B20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="25">
+        <v>42983</v>
+      </c>
+      <c r="D20" s="14">
+        <v>4</v>
+      </c>
+      <c r="E20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L7" s="22">
-        <v>1</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="22">
+      <c r="I20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="L20" s="14">
+        <v>1</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="24">
-        <v>42983</v>
-      </c>
-      <c r="D9" s="11">
-        <v>3</v>
-      </c>
-      <c r="E9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L9" s="11">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="24">
-        <v>42983</v>
-      </c>
-      <c r="D10" s="11">
-        <v>3</v>
-      </c>
-      <c r="E10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="25">
-        <v>42983</v>
-      </c>
-      <c r="D11" s="14">
-        <v>4</v>
-      </c>
-      <c r="E11" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L11" s="14">
-        <v>1</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="25">
-        <v>42983</v>
-      </c>
-      <c r="D12" s="14">
-        <v>4</v>
-      </c>
-      <c r="E12" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L12" s="14">
-        <v>1</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:N1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1085,12 +1391,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1106,13 +1412,12 @@
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="130.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="12.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="95.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1120,48 +1425,48 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="17">
         <v>42984</v>
@@ -1185,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="19">
         <v>10000000</v>
@@ -1194,18 +1499,15 @@
         <v>1</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="17">
         <v>42984</v>
@@ -1229,7 +1531,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="19">
         <v>10000000</v>
@@ -1238,18 +1540,15 @@
         <v>1</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="17">
         <v>42984</v>
@@ -1273,27 +1572,24 @@
         <v>6</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="19">
         <v>10000000</v>
       </c>
       <c r="L4" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="17">
         <v>42984</v>
@@ -1317,27 +1613,24 @@
         <v>6</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="19">
         <v>10000000</v>
       </c>
       <c r="L5" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="17">
         <v>42984</v>
@@ -1361,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="19">
         <v>10000000</v>
@@ -1370,18 +1663,15 @@
         <v>1</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="17">
         <v>42984</v>
@@ -1405,27 +1695,24 @@
         <v>6</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="19">
         <v>10000000</v>
       </c>
       <c r="L7" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="17">
         <v>42984</v>
@@ -1449,27 +1736,24 @@
         <v>6</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="19">
         <v>10000000</v>
       </c>
       <c r="L8" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="17">
         <v>42984</v>
@@ -1493,7 +1777,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="19">
         <v>10000000</v>
@@ -1502,18 +1786,15 @@
         <v>1</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="17">
         <v>42984</v>
@@ -1537,7 +1818,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="19">
         <v>10000000</v>
@@ -1546,18 +1827,15 @@
         <v>1</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="17">
         <v>42984</v>
@@ -1581,27 +1859,24 @@
         <v>6</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="19">
         <v>10000000</v>
       </c>
       <c r="L11" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="17">
         <v>42984</v>
@@ -1625,27 +1900,24 @@
         <v>6</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" s="19">
         <v>10000000</v>
       </c>
       <c r="L12" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="17">
         <v>42984</v>
@@ -1669,7 +1941,7 @@
         <v>6</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="19">
         <v>10000000</v>
@@ -1678,18 +1950,15 @@
         <v>1</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="17">
         <v>42984</v>
@@ -1713,27 +1982,24 @@
         <v>6</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="19">
         <v>10000000</v>
       </c>
       <c r="L14" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="17">
         <v>42984</v>
@@ -1757,27 +2023,24 @@
         <v>6</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="19">
         <v>10000000</v>
       </c>
       <c r="L15" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="21">
         <v>42984</v>
@@ -1801,7 +2064,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16" s="23">
         <v>10000000</v>
@@ -1810,18 +2073,15 @@
         <v>1</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="21">
         <v>42984</v>
@@ -1845,7 +2105,7 @@
         <v>6</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17" s="23">
         <v>10000000</v>
@@ -1854,18 +2114,15 @@
         <v>1</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="21">
         <v>42984</v>
@@ -1889,27 +2146,24 @@
         <v>6</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18" s="23">
         <v>10000000</v>
       </c>
       <c r="L18" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="21">
         <v>42984</v>
@@ -1933,27 +2187,24 @@
         <v>6</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" s="23">
         <v>10000000</v>
       </c>
       <c r="L19" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="21">
         <v>42984</v>
@@ -1977,7 +2228,7 @@
         <v>6</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" s="23">
         <v>10000000</v>
@@ -1986,18 +2237,15 @@
         <v>1</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="21">
         <v>42984</v>
@@ -2021,27 +2269,24 @@
         <v>6</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K21" s="23">
         <v>10000000</v>
       </c>
       <c r="L21" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="21">
         <v>42984</v>
@@ -2065,27 +2310,24 @@
         <v>6</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K22" s="23">
         <v>10000000</v>
       </c>
       <c r="L22" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="21">
         <v>42984</v>
@@ -2109,7 +2351,7 @@
         <v>6</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K23" s="23">
         <v>10000000</v>
@@ -2118,18 +2360,15 @@
         <v>1</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="21">
         <v>42984</v>
@@ -2153,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K24" s="23">
         <v>10000000</v>
@@ -2162,18 +2401,15 @@
         <v>1</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="21">
         <v>42984</v>
@@ -2197,27 +2433,24 @@
         <v>6</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K25" s="23">
         <v>10000000</v>
       </c>
       <c r="L25" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="N25" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="21">
         <v>42984</v>
@@ -2241,27 +2474,24 @@
         <v>6</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K26" s="23">
         <v>10000000</v>
       </c>
       <c r="L26" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N26" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="21">
         <v>42984</v>
@@ -2285,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K27" s="23">
         <v>10000000</v>
@@ -2294,18 +2524,15 @@
         <v>1</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="N27" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="21">
         <v>42984</v>
@@ -2329,27 +2556,24 @@
         <v>6</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K28" s="23">
         <v>10000000</v>
       </c>
       <c r="L28" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="N28" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="21">
         <v>42984</v>
@@ -2373,27 +2597,24 @@
         <v>6</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K29" s="23">
         <v>10000000</v>
       </c>
       <c r="L29" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="24">
         <v>42983</v>
@@ -2417,7 +2638,7 @@
         <v>6</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K30" s="12">
         <v>10000000</v>
@@ -2426,18 +2647,15 @@
         <v>1</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="24">
         <v>42983</v>
@@ -2461,7 +2679,7 @@
         <v>6</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K31" s="12">
         <v>10000000</v>
@@ -2470,18 +2688,15 @@
         <v>1</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="24">
         <v>42983</v>
@@ -2505,7 +2720,7 @@
         <v>6</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K32" s="12">
         <v>10000000</v>
@@ -2514,18 +2729,15 @@
         <v>1</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="24">
         <v>42983</v>
@@ -2549,7 +2761,7 @@
         <v>6</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K33" s="12">
         <v>10000000</v>
@@ -2558,18 +2770,15 @@
         <v>1</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="24">
         <v>42983</v>
@@ -2593,7 +2802,7 @@
         <v>6</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K34" s="12">
         <v>10000000</v>
@@ -2602,18 +2811,15 @@
         <v>1</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="24">
         <v>42983</v>
@@ -2637,7 +2843,7 @@
         <v>6</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K35" s="12">
         <v>10000000</v>
@@ -2646,18 +2852,15 @@
         <v>1</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="25">
         <v>42983</v>
@@ -2681,7 +2884,7 @@
         <v>6</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K36" s="15">
         <v>10000000</v>
@@ -2690,18 +2893,15 @@
         <v>1</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N36" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="25">
         <v>42983</v>
@@ -2725,7 +2925,7 @@
         <v>6</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K37" s="15">
         <v>10000000</v>
@@ -2734,18 +2934,15 @@
         <v>1</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N37" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="25">
         <v>42983</v>
@@ -2769,7 +2966,7 @@
         <v>6</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K38" s="15">
         <v>10000000</v>
@@ -2778,18 +2975,15 @@
         <v>1</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="25">
         <v>42983</v>
@@ -2813,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K39" s="15">
         <v>10000000</v>
@@ -2822,18 +3016,15 @@
         <v>1</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="25">
         <v>42983</v>
@@ -2857,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K40" s="15">
         <v>10000000</v>
@@ -2866,18 +3057,15 @@
         <v>1</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="25">
         <v>42983</v>
@@ -2901,7 +3089,7 @@
         <v>6</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K41" s="15">
         <v>10000000</v>
@@ -2910,10 +3098,7 @@
         <v>1</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N41" s="14">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/Excel_Sheets/Products/CYB_LSA.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_LSA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="5" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -724,7 +724,8 @@
         <v>31</v>
       </c>
       <c r="C2" s="17">
-        <v>43102</v>
+        <f ca="1">TODAY()</f>
+        <v>43194</v>
       </c>
       <c r="D2" s="18">
         <v>1</v>
@@ -1382,14 +1383,14 @@
     </row>
     <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X41"/>
   <sheetViews>
@@ -3102,14 +3103,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3506,7 +3507,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/CYB_LSA.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_LSA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="5" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'11611'!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$X$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="53">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -645,12 +645,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,20 +659,17 @@
     <col min="2" max="2" width="48.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="116.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="116.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -686,37 +683,28 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -725,44 +713,35 @@
       </c>
       <c r="C2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43381</v>
       </c>
       <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L2" s="18">
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I2" s="18">
         <v>5</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
@@ -775,38 +754,29 @@
       <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>6</v>
+      <c r="F4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L4" s="18">
-        <v>1</v>
-      </c>
-      <c r="M4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
@@ -819,38 +789,29 @@
       <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>6</v>
+      <c r="F5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L5" s="18">
-        <v>1</v>
-      </c>
-      <c r="M5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -863,38 +824,29 @@
       <c r="D6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>6</v>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I6" s="18">
+        <v>5</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L6" s="18">
-        <v>5</v>
-      </c>
-      <c r="M6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
@@ -907,38 +859,29 @@
       <c r="D7" s="18">
         <v>1</v>
       </c>
-      <c r="E7" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>6</v>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I7" s="18">
+        <v>5</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L7" s="18">
-        <v>5</v>
-      </c>
-      <c r="M7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
@@ -951,38 +894,29 @@
       <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="E8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>6</v>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L8" s="18">
-        <v>1</v>
-      </c>
-      <c r="M8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -995,38 +929,29 @@
       <c r="D9" s="18">
         <v>1</v>
       </c>
-      <c r="E9" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>6</v>
+      <c r="F9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I9" s="18">
+        <v>5</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L9" s="18">
-        <v>5</v>
-      </c>
-      <c r="M9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>13</v>
       </c>
@@ -1039,39 +964,30 @@
       <c r="D10" s="18">
         <v>1</v>
       </c>
-      <c r="E10" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>6</v>
+      <c r="F10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I10" s="18">
+        <v>5</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L10" s="18">
-        <v>5</v>
-      </c>
-      <c r="M10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
@@ -1084,39 +1000,30 @@
       <c r="D12" s="18">
         <v>1</v>
       </c>
-      <c r="E12" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L12" s="18">
-        <v>6</v>
-      </c>
-      <c r="M12" s="26" t="s">
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I12" s="18">
+        <v>6</v>
+      </c>
+      <c r="J12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
@@ -1129,38 +1036,29 @@
       <c r="D14" s="22">
         <v>2</v>
       </c>
-      <c r="E14" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="20" t="s">
+      <c r="E14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L14" s="22">
-        <v>1</v>
-      </c>
-      <c r="M14" s="27" t="s">
+      <c r="F14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I14" s="22">
+        <v>1</v>
+      </c>
+      <c r="J14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>17</v>
       </c>
@@ -1173,39 +1071,30 @@
       <c r="D15" s="22">
         <v>2</v>
       </c>
-      <c r="E15" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20" t="s">
+      <c r="E15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L15" s="22">
-        <v>1</v>
-      </c>
-      <c r="M15" s="27" t="s">
+      <c r="F15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I15" s="22">
+        <v>1</v>
+      </c>
+      <c r="J15" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="N15" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
@@ -1218,38 +1107,29 @@
       <c r="D17" s="11">
         <v>3</v>
       </c>
-      <c r="E17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>6</v>
+      <c r="F17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L17" s="11">
-        <v>1</v>
-      </c>
-      <c r="M17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
@@ -1262,38 +1142,29 @@
       <c r="D18" s="11">
         <v>3</v>
       </c>
-      <c r="E18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>6</v>
+      <c r="F18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L18" s="11">
-        <v>1</v>
-      </c>
-      <c r="M18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>16</v>
       </c>
@@ -1306,38 +1177,29 @@
       <c r="D19" s="14">
         <v>4</v>
       </c>
-      <c r="E19" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>6</v>
+      <c r="F19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L19" s="14">
-        <v>1</v>
-      </c>
-      <c r="M19" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N19" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>17</v>
       </c>
@@ -1350,40 +1212,31 @@
       <c r="D20" s="14">
         <v>4</v>
       </c>
-      <c r="E20" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="E20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>6</v>
+      <c r="F20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L20" s="14">
-        <v>1</v>
-      </c>
-      <c r="M20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N20" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="K20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1392,12 +1245,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1406,20 +1259,17 @@
     <col min="2" max="2" width="32.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="95.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="95.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1433,39 +1283,30 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
@@ -1478,38 +1319,29 @@
       <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>6</v>
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I2" s="18">
+        <v>1</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L2" s="18">
-        <v>1</v>
-      </c>
-      <c r="M2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -1517,15 +1349,12 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
@@ -1538,38 +1367,29 @@
       <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>6</v>
+      <c r="F4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L4" s="18">
-        <v>1</v>
-      </c>
-      <c r="M4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
@@ -1582,38 +1402,29 @@
       <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>6</v>
+      <c r="F5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I5" s="18">
+        <v>5</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L5" s="18">
-        <v>5</v>
-      </c>
-      <c r="M5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1626,38 +1437,29 @@
       <c r="D6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>6</v>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I6" s="18">
+        <v>5</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L6" s="18">
-        <v>5</v>
-      </c>
-      <c r="M6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
@@ -1670,38 +1472,29 @@
       <c r="D7" s="18">
         <v>1</v>
       </c>
-      <c r="E7" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>6</v>
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L7" s="18">
-        <v>1</v>
-      </c>
-      <c r="M7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
@@ -1714,38 +1507,29 @@
       <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="E8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>6</v>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I8" s="18">
+        <v>5</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L8" s="18">
-        <v>5</v>
-      </c>
-      <c r="M8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -1758,38 +1542,29 @@
       <c r="D9" s="18">
         <v>1</v>
       </c>
-      <c r="E9" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>6</v>
+      <c r="F9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I9" s="18">
+        <v>5</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L9" s="18">
-        <v>5</v>
-      </c>
-      <c r="M9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
@@ -1802,38 +1577,29 @@
       <c r="D10" s="18">
         <v>1</v>
       </c>
-      <c r="E10" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>6</v>
+      <c r="F10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L10" s="18">
-        <v>1</v>
-      </c>
-      <c r="M10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
@@ -1846,38 +1612,29 @@
       <c r="D11" s="18">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>6</v>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L11" s="18">
-        <v>1</v>
-      </c>
-      <c r="M11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
@@ -1890,38 +1647,29 @@
       <c r="D12" s="18">
         <v>1</v>
       </c>
-      <c r="E12" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>6</v>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I12" s="18">
+        <v>5</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L12" s="18">
-        <v>5</v>
-      </c>
-      <c r="M12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1934,38 +1682,29 @@
       <c r="D13" s="18">
         <v>1</v>
       </c>
-      <c r="E13" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>6</v>
+      <c r="F13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I13" s="18">
+        <v>5</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L13" s="18">
-        <v>5</v>
-      </c>
-      <c r="M13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1978,38 +1717,29 @@
       <c r="D14" s="18">
         <v>1</v>
       </c>
-      <c r="E14" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>6</v>
+      <c r="F14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L14" s="18">
-        <v>1</v>
-      </c>
-      <c r="M14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -2022,38 +1752,29 @@
       <c r="D15" s="18">
         <v>1</v>
       </c>
-      <c r="E15" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>6</v>
+      <c r="F15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I15" s="18">
+        <v>5</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L15" s="18">
-        <v>5</v>
-      </c>
-      <c r="M15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -2066,38 +1787,29 @@
       <c r="D16" s="18">
         <v>1</v>
       </c>
-      <c r="E16" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>6</v>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="I16" s="18">
+        <v>5</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="L16" s="18">
-        <v>5</v>
-      </c>
-      <c r="M16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
@@ -2110,38 +1822,29 @@
       <c r="D17" s="22">
         <v>2</v>
       </c>
-      <c r="E17" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
+      <c r="E17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>6</v>
+      <c r="F17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I17" s="22">
+        <v>1</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L17" s="22">
-        <v>1</v>
-      </c>
-      <c r="M17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
@@ -2154,38 +1857,29 @@
       <c r="D18" s="22">
         <v>2</v>
       </c>
-      <c r="E18" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20" t="s">
+      <c r="E18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>6</v>
+      <c r="F18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I18" s="22">
+        <v>1</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L18" s="22">
-        <v>1</v>
-      </c>
-      <c r="M18" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>16</v>
       </c>
@@ -2198,38 +1892,29 @@
       <c r="D19" s="22">
         <v>2</v>
       </c>
-      <c r="E19" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="20" t="s">
+      <c r="E19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>6</v>
+      <c r="F19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I19" s="22">
+        <v>5</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L19" s="22">
-        <v>5</v>
-      </c>
-      <c r="M19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="N19" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K19" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>16</v>
       </c>
@@ -2242,38 +1927,29 @@
       <c r="D20" s="22">
         <v>2</v>
       </c>
-      <c r="E20" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="20" t="s">
+      <c r="E20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>6</v>
+      <c r="F20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I20" s="22">
+        <v>5</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L20" s="22">
-        <v>5</v>
-      </c>
-      <c r="M20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K20" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>16</v>
       </c>
@@ -2286,38 +1962,29 @@
       <c r="D21" s="22">
         <v>2</v>
       </c>
-      <c r="E21" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="20" t="s">
+      <c r="E21" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>6</v>
+      <c r="F21" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I21" s="22">
+        <v>1</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L21" s="22">
-        <v>1</v>
-      </c>
-      <c r="M21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="N21" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K21" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -2330,38 +1997,29 @@
       <c r="D22" s="22">
         <v>2</v>
       </c>
-      <c r="E22" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="20" t="s">
+      <c r="E22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>6</v>
+      <c r="F22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I22" s="22">
+        <v>5</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L22" s="22">
-        <v>5</v>
-      </c>
-      <c r="M22" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K22" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>16</v>
       </c>
@@ -2374,38 +2032,29 @@
       <c r="D23" s="22">
         <v>2</v>
       </c>
-      <c r="E23" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="20" t="s">
+      <c r="E23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="20" t="s">
-        <v>6</v>
+      <c r="F23" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I23" s="22">
+        <v>5</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L23" s="22">
-        <v>5</v>
-      </c>
-      <c r="M23" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N23" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K23" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>17</v>
       </c>
@@ -2418,38 +2067,29 @@
       <c r="D24" s="22">
         <v>2</v>
       </c>
-      <c r="E24" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="20" t="s">
+      <c r="E24" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="20" t="s">
-        <v>6</v>
+      <c r="F24" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I24" s="22">
+        <v>1</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L24" s="22">
-        <v>1</v>
-      </c>
-      <c r="M24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K24" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>17</v>
       </c>
@@ -2462,38 +2102,29 @@
       <c r="D25" s="22">
         <v>2</v>
       </c>
-      <c r="E25" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="20" t="s">
+      <c r="E25" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>6</v>
+      <c r="F25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I25" s="22">
+        <v>1</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L25" s="22">
-        <v>1</v>
-      </c>
-      <c r="M25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K25" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>17</v>
       </c>
@@ -2506,38 +2137,29 @@
       <c r="D26" s="22">
         <v>2</v>
       </c>
-      <c r="E26" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="20" t="s">
+      <c r="E26" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="20" t="s">
-        <v>6</v>
+      <c r="F26" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I26" s="22">
+        <v>5</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L26" s="22">
-        <v>5</v>
-      </c>
-      <c r="M26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="N26" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K26" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>17</v>
       </c>
@@ -2550,38 +2172,29 @@
       <c r="D27" s="22">
         <v>2</v>
       </c>
-      <c r="E27" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="20" t="s">
+      <c r="E27" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="20" t="s">
-        <v>6</v>
+      <c r="F27" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I27" s="22">
+        <v>5</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L27" s="22">
-        <v>5</v>
-      </c>
-      <c r="M27" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K27" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>17</v>
       </c>
@@ -2594,38 +2207,29 @@
       <c r="D28" s="22">
         <v>2</v>
       </c>
-      <c r="E28" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="20" t="s">
+      <c r="E28" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>6</v>
+      <c r="F28" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I28" s="22">
+        <v>1</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L28" s="22">
-        <v>1</v>
-      </c>
-      <c r="M28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="N28" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K28" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>17</v>
       </c>
@@ -2638,38 +2242,29 @@
       <c r="D29" s="22">
         <v>2</v>
       </c>
-      <c r="E29" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
+      <c r="E29" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="20" t="s">
-        <v>6</v>
+      <c r="F29" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I29" s="22">
+        <v>5</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L29" s="22">
-        <v>5</v>
-      </c>
-      <c r="M29" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N29" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K29" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>17</v>
       </c>
@@ -2682,38 +2277,29 @@
       <c r="D30" s="22">
         <v>2</v>
       </c>
-      <c r="E30" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="20" t="s">
+      <c r="E30" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="20" t="s">
-        <v>6</v>
+      <c r="F30" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="I30" s="22">
+        <v>5</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="23">
-        <v>10000000</v>
-      </c>
-      <c r="L30" s="22">
-        <v>5</v>
-      </c>
-      <c r="M30" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N30" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K30" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>13</v>
       </c>
@@ -2726,38 +2312,29 @@
       <c r="D31" s="11">
         <v>3</v>
       </c>
-      <c r="E31" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>6</v>
+      <c r="F31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L31" s="11">
-        <v>1</v>
-      </c>
-      <c r="M31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N31" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>13</v>
       </c>
@@ -2770,38 +2347,29 @@
       <c r="D32" s="11">
         <v>3</v>
       </c>
-      <c r="E32" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="10" t="s">
-        <v>6</v>
+      <c r="F32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L32" s="11">
-        <v>1</v>
-      </c>
-      <c r="M32" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N32" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>13</v>
       </c>
@@ -2814,38 +2382,29 @@
       <c r="D33" s="11">
         <v>3</v>
       </c>
-      <c r="E33" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="10" t="s">
-        <v>6</v>
+      <c r="F33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L33" s="11">
-        <v>1</v>
-      </c>
-      <c r="M33" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="N33" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K33" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>14</v>
       </c>
@@ -2858,38 +2417,29 @@
       <c r="D34" s="11">
         <v>3</v>
       </c>
-      <c r="E34" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="10" t="s">
-        <v>6</v>
+      <c r="F34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L34" s="11">
-        <v>1</v>
-      </c>
-      <c r="M34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N34" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>14</v>
       </c>
@@ -2902,38 +2452,29 @@
       <c r="D35" s="11">
         <v>3</v>
       </c>
-      <c r="E35" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10" t="s">
+      <c r="E35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>6</v>
+      <c r="F35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="I35" s="11">
+        <v>1</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L35" s="11">
-        <v>1</v>
-      </c>
-      <c r="M35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N35" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
@@ -2946,38 +2487,29 @@
       <c r="D36" s="11">
         <v>3</v>
       </c>
-      <c r="E36" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="10" t="s">
-        <v>6</v>
+      <c r="F36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="L36" s="11">
-        <v>1</v>
-      </c>
-      <c r="M36" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="N36" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>16</v>
       </c>
@@ -2990,38 +2522,29 @@
       <c r="D37" s="14">
         <v>4</v>
       </c>
-      <c r="E37" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>6</v>
+      <c r="F37" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="I37" s="14">
+        <v>1</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L37" s="14">
-        <v>1</v>
-      </c>
-      <c r="M37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N37" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>16</v>
       </c>
@@ -3034,38 +2557,29 @@
       <c r="D38" s="14">
         <v>4</v>
       </c>
-      <c r="E38" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>6</v>
+      <c r="F38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="I38" s="14">
+        <v>1</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L38" s="14">
-        <v>1</v>
-      </c>
-      <c r="M38" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N38" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>16</v>
       </c>
@@ -3078,38 +2592,29 @@
       <c r="D39" s="14">
         <v>4</v>
       </c>
-      <c r="E39" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="13" t="s">
+      <c r="E39" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>6</v>
+      <c r="F39" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="I39" s="14">
+        <v>1</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L39" s="14">
-        <v>1</v>
-      </c>
-      <c r="M39" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N39" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K39" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>17</v>
       </c>
@@ -3122,38 +2627,29 @@
       <c r="D40" s="14">
         <v>4</v>
       </c>
-      <c r="E40" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="13" t="s">
-        <v>6</v>
+      <c r="F40" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="I40" s="14">
+        <v>1</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L40" s="14">
-        <v>1</v>
-      </c>
-      <c r="M40" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N40" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K40" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>17</v>
       </c>
@@ -3166,38 +2662,29 @@
       <c r="D41" s="14">
         <v>4</v>
       </c>
-      <c r="E41" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="13" t="s">
+      <c r="E41" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="13" t="s">
-        <v>6</v>
+      <c r="F41" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L41" s="14">
-        <v>1</v>
-      </c>
-      <c r="M41" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N41" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K41" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>17</v>
       </c>
@@ -3210,39 +2697,30 @@
       <c r="D42" s="14">
         <v>4</v>
       </c>
-      <c r="E42" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="13" t="s">
+      <c r="E42" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>6</v>
+      <c r="F42" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="I42" s="14">
+        <v>1</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="L42" s="14">
-        <v>1</v>
-      </c>
-      <c r="M42" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N42" s="13">
+      <c r="K42" s="13">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
